--- a/biology/Médecine/Épileptologie/Épileptologie.xlsx
+++ b/biology/Médecine/Épileptologie/Épileptologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pileptologie</t>
+          <t>Épileptologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épileptologie est la discipline médicale clinique qui étudie l’épilepsie, c’est une spécialisation de la neurologie. Le médecin spécialisé pratiquant l’épileptologie s'appelle l’épileptologue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pileptologie</t>
+          <t>Épileptologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pileptologie</t>
+          <t>Épileptologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Explorations en épileptologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Électroencéphalogramme.
 Électromyogramme.
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pileptologie</t>
+          <t>Épileptologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,6 +588,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pileptologie</t>
+          <t>Épileptologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,7 +615,9 @@
           <t>Journée internationale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épilepsie est abordée durant la Journée internationale de l'épilepsie, qui a pour but de promouvoir les droits des malades.
 </t>
